--- a/CSL AU.xlsx
+++ b/CSL AU.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C6A64A-A560-410F-82C7-DC3CD775C56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401760C-32A7-4E28-A273-365501F81495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="2700" windowWidth="24495" windowHeight="17940"/>
+    <workbookView xWindow="8280" yWindow="3465" windowWidth="20310" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Idelvion" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
   <si>
     <t>Shares</t>
   </si>
@@ -336,12 +337,66 @@
   </si>
   <si>
     <t>Q222</t>
+  </si>
+  <si>
+    <t>CEO: Paul Perreault</t>
+  </si>
+  <si>
+    <t>rFIX</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>7- and 14-day</t>
+  </si>
+  <si>
+    <t>Hemophilia B prophylaxis, on-demand treatment</t>
+  </si>
+  <si>
+    <t>SCIG</t>
+  </si>
+  <si>
+    <t>Peri-operative</t>
+  </si>
+  <si>
+    <t>Other Specialty</t>
+  </si>
+  <si>
+    <t>Other Behring</t>
+  </si>
+  <si>
+    <t>Other Seqirus</t>
+  </si>
+  <si>
+    <t>Egg-based Vaccine</t>
+  </si>
+  <si>
+    <t>Cell Culture Vaccine</t>
+  </si>
+  <si>
+    <t>Adjuvanted Egg Vaccine</t>
+  </si>
+  <si>
+    <t>Pandemic</t>
+  </si>
+  <si>
+    <t>Fluad</t>
+  </si>
+  <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Hemophilia A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -487,7 +542,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +615,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,7 +646,7 @@
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -640,7 +696,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1003,11 +1059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1142,7 +1198,9 @@
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D7" s="12" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1219,9 @@
       <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>34</v>
       </c>
@@ -1174,25 +1234,28 @@
       <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
+      <c r="I9" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>58</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
@@ -1200,13 +1263,13 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="6"/>
@@ -1215,21 +1278,25 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -1237,7 +1304,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
@@ -1248,21 +1315,19 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>57</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1270,9 +1335,11 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1280,67 +1347,67 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>55</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>60</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="37" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -1348,13 +1415,11 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C24" s="32"/>
       <c r="D24" s="37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -1362,22 +1427,28 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
@@ -1415,29 +1486,89 @@
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B19" location="Idelvion!A1" display="Idelvion" xr:uid="{9C6169F3-8E8B-48ED-8210-B49DC4D7C59C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA54BA6-4B65-4711-929C-B9391A48EA8B}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D14CF6E3-8A3D-4C60-8538-41848DB7E5FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BA37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV27" sqref="AV27"/>
+      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1660,19 +1791,12 @@
       </c>
     </row>
     <row r="3" spans="1:53">
-      <c r="B3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="17">
-        <v>451</v>
-      </c>
-      <c r="D3" s="17">
-        <f>+AJ3-C3</f>
-        <v>461</v>
-      </c>
-      <c r="E3" s="17">
-        <v>494</v>
-      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -1697,27 +1821,20 @@
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
-      <c r="AI3">
-        <v>731</v>
-      </c>
-      <c r="AJ3">
-        <v>912</v>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AW3">
+        <v>2511</v>
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="17">
-        <v>260</v>
-      </c>
-      <c r="D4" s="17">
-        <f>+AJ4-C4</f>
-        <v>257</v>
-      </c>
-      <c r="E4" s="17">
-        <v>283</v>
-      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1742,26 +1859,26 @@
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
-      <c r="AI4">
-        <v>525</v>
-      </c>
-      <c r="AJ4">
-        <v>517</v>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AW4">
+        <v>1513</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="17">
-        <v>220</v>
+        <v>451</v>
       </c>
       <c r="D5" s="17">
         <f>+AJ5-C5</f>
-        <v>214</v>
+        <v>461</v>
       </c>
       <c r="E5" s="17">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1788,25 +1905,29 @@
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AI5">
-        <v>407</v>
+        <v>731</v>
       </c>
       <c r="AJ5">
-        <v>434</v>
+        <v>912</v>
+      </c>
+      <c r="AW5">
+        <f>+AW4+AW3</f>
+        <v>4024</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="17">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="D6" s="17">
         <f>+AJ6-C6</f>
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="E6" s="17">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -1833,16 +1954,29 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AI6">
-        <v>229</v>
+        <v>525</v>
       </c>
       <c r="AJ6">
-        <v>267</v>
+        <v>517</v>
+      </c>
+      <c r="AW6">
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="17">
+        <v>220</v>
+      </c>
+      <c r="D7" s="17">
+        <f>+AJ7-C7</f>
+        <v>214</v>
+      </c>
+      <c r="E7" s="17">
+        <v>247</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -1867,637 +2001,471 @@
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
-    </row>
-    <row r="8" spans="1:53" s="22" customFormat="1">
-      <c r="B8" s="22" t="s">
+      <c r="AI7">
+        <v>407</v>
+      </c>
+      <c r="AJ7">
+        <v>434</v>
+      </c>
+      <c r="AW7">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="17">
+        <v>133</v>
+      </c>
+      <c r="D8" s="17">
+        <f>+AJ8-C8</f>
+        <v>134</v>
+      </c>
+      <c r="E8" s="17">
+        <v>147</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AI8">
+        <v>229</v>
+      </c>
+      <c r="AJ8">
+        <v>267</v>
+      </c>
+      <c r="AW8">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="B9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AW9">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="B10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AW10">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="B11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AW11">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="B12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AW12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="B13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AW13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="B14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AW14">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="B15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AW15">
+        <f>178+25</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="B16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AW16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:49">
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="2:49">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="2:49" s="22" customFormat="1">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C19" s="23">
         <v>2206.6550000000002</v>
       </c>
-      <c r="D8" s="23">
-        <f>AJ8-C8</f>
+      <c r="D19" s="23">
+        <f>AJ19-C19</f>
         <v>2415.7319999999995</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E19" s="23">
         <v>2317.3919999999998</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AI8" s="22">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AI19" s="22">
         <v>3556.6619999999998</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ19" s="22">
         <v>4622.3869999999997</v>
       </c>
-      <c r="AU8" s="22">
+      <c r="AU19" s="22">
         <v>9150.7999999999993</v>
       </c>
-      <c r="AV8" s="22">
+      <c r="AV19" s="22">
         <v>10310</v>
       </c>
-      <c r="AW8" s="22">
+      <c r="AW19" s="22">
         <v>10561.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" s="19" customFormat="1">
-      <c r="B9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1192.431</v>
-      </c>
-      <c r="D9" s="28">
-        <f>AJ9-C9</f>
-        <v>1207.2889999999998</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1097.529</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AJ9" s="19">
-        <v>2399.7199999999998</v>
-      </c>
-      <c r="AU9" s="19">
-        <v>3924.4</v>
-      </c>
-      <c r="AV9" s="19">
-        <v>4466.7</v>
-      </c>
-      <c r="AW9" s="19">
-        <v>4829.6000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" s="19" customFormat="1">
-      <c r="B10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="21">
-        <f>+C8-C9</f>
-        <v>1014.2240000000002</v>
-      </c>
-      <c r="D10" s="21">
-        <f>+D8-D9</f>
-        <v>1208.4429999999998</v>
-      </c>
-      <c r="E10" s="21">
-        <f>+E8-E9</f>
-        <v>1219.8629999999998</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AJ10" s="19">
-        <f>+AJ8-AJ9</f>
-        <v>2222.6669999999999</v>
-      </c>
-      <c r="AU10" s="19">
-        <f>AU8-AU9</f>
-        <v>5226.3999999999996</v>
-      </c>
-      <c r="AV10" s="19">
-        <f>AV8-AV9</f>
-        <v>5843.3</v>
-      </c>
-      <c r="AW10" s="19">
-        <f>AW8-AW9</f>
-        <v>5732.2999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" s="19" customFormat="1">
-      <c r="B11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="21">
-        <v>153.03399999999999</v>
-      </c>
-      <c r="D11" s="28">
-        <f>AJ11-C11</f>
-        <v>158.58100000000002</v>
-      </c>
-      <c r="E11" s="21">
-        <v>146.92400000000001</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AJ11" s="19">
-        <v>311.61500000000001</v>
-      </c>
-      <c r="AU11" s="19">
-        <v>921.8</v>
-      </c>
-      <c r="AV11" s="19">
-        <v>1001.4</v>
-      </c>
-      <c r="AW11" s="19">
-        <v>1156.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" s="19" customFormat="1">
-      <c r="B12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="21">
-        <v>227.47800000000001</v>
-      </c>
-      <c r="D12" s="28">
-        <f>AJ12-C12</f>
-        <v>261.67199999999997</v>
-      </c>
-      <c r="E12" s="21">
-        <v>226.17099999999999</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AJ12" s="19">
-        <v>489.15</v>
-      </c>
-      <c r="AU12" s="19">
-        <v>896.2</v>
-      </c>
-      <c r="AV12" s="19">
-        <v>980.2</v>
-      </c>
-      <c r="AW12" s="19">
-        <v>960.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" s="19" customFormat="1">
-      <c r="B13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="21">
-        <v>121.86199999999999</v>
-      </c>
-      <c r="D13" s="28">
-        <f>AJ13-C13</f>
-        <v>285.40200000000004</v>
-      </c>
-      <c r="E13" s="21">
-        <v>123.15900000000001</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AJ13" s="19">
-        <v>407.26400000000001</v>
-      </c>
-      <c r="AU13" s="19">
-        <v>691.9</v>
-      </c>
-      <c r="AV13" s="19">
-        <v>731.7</v>
-      </c>
-      <c r="AW13" s="19">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" s="19" customFormat="1">
-      <c r="B14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="21">
-        <f>158.216-30.22</f>
-        <v>127.99600000000001</v>
-      </c>
-      <c r="D14" s="28">
-        <f>AJ14-C14</f>
-        <v>-20.552999999999997</v>
-      </c>
-      <c r="E14" s="21">
-        <f>97.581-9.846</f>
-        <v>87.734999999999999</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AJ14" s="19">
-        <f>169.352-61.909</f>
-        <v>107.44300000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" s="19" customFormat="1">
-      <c r="B15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="21">
-        <f>C11+C12+C13-C14</f>
-        <v>374.37800000000004</v>
-      </c>
-      <c r="D15" s="21">
-        <f>D11+D12+D13-D14</f>
-        <v>726.20799999999997</v>
-      </c>
-      <c r="E15" s="21">
-        <f>E11+E12+E13-E14</f>
-        <v>408.51900000000001</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AJ15" s="21">
-        <f>AJ11+AJ12+AJ13-AJ14</f>
-        <v>1100.586</v>
-      </c>
-      <c r="AU15" s="19">
-        <f>SUM(AU11:AU13)</f>
-        <v>2509.9</v>
-      </c>
-      <c r="AV15" s="19">
-        <f>SUM(AV11:AV13)</f>
-        <v>2713.3</v>
-      </c>
-      <c r="AW15" s="19">
-        <f>SUM(AW11:AW13)</f>
-        <v>2804.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" s="19" customFormat="1">
-      <c r="B16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="21">
-        <f>C10-C15</f>
-        <v>639.84600000000012</v>
-      </c>
-      <c r="D16" s="21">
-        <f>D10-D15</f>
-        <v>482.23499999999979</v>
-      </c>
-      <c r="E16" s="21">
-        <f>E10-E15</f>
-        <v>811.34399999999982</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AJ16" s="21">
-        <f>AJ10-AJ15</f>
-        <v>1122.0809999999999</v>
-      </c>
-      <c r="AU16" s="19">
-        <f>AU10-AU15</f>
-        <v>2716.4999999999995</v>
-      </c>
-      <c r="AV16" s="19">
-        <f>AV10-AV15</f>
-        <v>3130</v>
-      </c>
-      <c r="AW16" s="19">
-        <f>AW10-AW15</f>
-        <v>2927.3999999999992</v>
-      </c>
-    </row>
-    <row r="17" spans="2:49" s="19" customFormat="1">
-      <c r="B17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AU17" s="19">
-        <f>-150.8+7</f>
-        <v>-143.80000000000001</v>
-      </c>
-      <c r="AV17" s="19">
-        <f>-170.8+3.9</f>
-        <v>-166.9</v>
-      </c>
-      <c r="AW17" s="19">
-        <f>-165.2+17.4</f>
-        <v>-147.79999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:49" s="19" customFormat="1">
-      <c r="B18" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AU18" s="19">
-        <f>AU16+AU17</f>
-        <v>2572.6999999999994</v>
-      </c>
-      <c r="AV18" s="19">
-        <f>AV16+AV17</f>
-        <v>2963.1</v>
-      </c>
-      <c r="AW18" s="19">
-        <f>AW16+AW17</f>
-        <v>2779.599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:49" s="19" customFormat="1">
-      <c r="B19" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="21">
-        <v>137.989</v>
-      </c>
-      <c r="D19" s="28">
-        <f>AJ19-C19</f>
-        <v>85.825999999999993</v>
-      </c>
-      <c r="E19" s="21">
-        <v>193.95</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AJ19" s="19">
-        <v>223.815</v>
-      </c>
-      <c r="AU19" s="19">
-        <v>470.2</v>
-      </c>
-      <c r="AV19" s="19">
-        <v>588.1</v>
-      </c>
-      <c r="AW19" s="19">
-        <v>524.9</v>
       </c>
     </row>
     <row r="20" spans="2:49" s="19" customFormat="1">
       <c r="B20" s="20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C20" s="21">
-        <f>+C16-C19</f>
-        <v>501.85700000000008</v>
-      </c>
-      <c r="D20" s="21">
-        <f>+D16-D19</f>
-        <v>396.40899999999976</v>
+        <v>1192.431</v>
+      </c>
+      <c r="D20" s="28">
+        <f>AJ20-C20</f>
+        <v>1207.2889999999998</v>
       </c>
       <c r="E20" s="21">
-        <f>+E16-E19</f>
-        <v>617.39399999999978</v>
+        <v>1097.529</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -2523,92 +2491,89 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
-      <c r="AJ20" s="21">
-        <f>+AJ16-AJ19</f>
-        <v>898.26599999999985</v>
+      <c r="AJ20" s="19">
+        <v>2399.7199999999998</v>
       </c>
       <c r="AU20" s="19">
-        <f>AU18-AU19</f>
-        <v>2102.4999999999995</v>
+        <v>3924.4</v>
       </c>
       <c r="AV20" s="19">
-        <f>AV18-AV19</f>
-        <v>2375</v>
+        <v>4466.7</v>
       </c>
       <c r="AW20" s="19">
-        <f>AW18-AW19</f>
-        <v>2254.6999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="2:49" s="24" customFormat="1">
-      <c r="B21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="25">
-        <f>+C20/C22</f>
-        <v>0.85046300408995923</v>
-      </c>
-      <c r="D21" s="25">
-        <f>+D20/D22</f>
-        <v>0.66327492681548916</v>
-      </c>
-      <c r="E21" s="25">
-        <f>+E20/E22</f>
-        <v>1.0600336125949255</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AJ21" s="25">
-        <f>+AJ20/AJ22</f>
-        <v>1.5029863484704999</v>
-      </c>
-      <c r="AU21" s="24">
-        <f>AU20/AU22</f>
-        <v>4.6147429326995315</v>
-      </c>
-      <c r="AV21" s="24">
-        <f>AV20/AV22</f>
-        <v>5.2060065794760595</v>
-      </c>
-      <c r="AW21" s="24">
-        <f>AW20/AW22</f>
-        <v>4.7960382167520299</v>
+        <v>4829.6000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:49" s="19" customFormat="1">
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="21">
+        <f>+C19-C20</f>
+        <v>1014.2240000000002</v>
+      </c>
+      <c r="D21" s="21">
+        <f>+D19-D20</f>
+        <v>1208.4429999999998</v>
+      </c>
+      <c r="E21" s="21">
+        <f>+E19-E20</f>
+        <v>1219.8629999999998</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AJ21" s="19">
+        <f>+AJ19-AJ20</f>
+        <v>2222.6669999999999</v>
+      </c>
+      <c r="AU21" s="19">
+        <f>AU19-AU20</f>
+        <v>5226.3999999999996</v>
+      </c>
+      <c r="AV21" s="19">
+        <f>AV19-AV20</f>
+        <v>5843.3</v>
+      </c>
+      <c r="AW21" s="19">
+        <f>AW19-AW20</f>
+        <v>5732.2999999999993</v>
       </c>
     </row>
     <row r="22" spans="2:49" s="19" customFormat="1">
       <c r="B22" s="20" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C22" s="21">
-        <v>590.098567</v>
-      </c>
-      <c r="D22" s="21">
-        <v>597.65413100000001</v>
+        <v>153.03399999999999</v>
+      </c>
+      <c r="D22" s="28">
+        <f>AJ22-C22</f>
+        <v>158.58100000000002</v>
       </c>
       <c r="E22" s="21">
-        <v>582.42870100000005</v>
+        <v>146.92400000000001</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -2635,25 +2600,83 @@
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
       <c r="AJ22" s="19">
-        <v>597.65413100000001</v>
+        <v>311.61500000000001</v>
       </c>
       <c r="AU22" s="19">
-        <v>455.60500999999999</v>
+        <v>921.8</v>
       </c>
       <c r="AV22" s="19">
-        <v>456.20380299999999</v>
+        <v>1001.4</v>
       </c>
       <c r="AW22" s="19">
-        <v>470.117188</v>
+        <v>1156.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" s="19" customFormat="1">
+      <c r="B23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="21">
+        <v>227.47800000000001</v>
+      </c>
+      <c r="D23" s="28">
+        <f>AJ23-C23</f>
+        <v>261.67199999999997</v>
+      </c>
+      <c r="E23" s="21">
+        <v>226.17099999999999</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AJ23" s="19">
+        <v>489.15</v>
+      </c>
+      <c r="AU23" s="19">
+        <v>896.2</v>
+      </c>
+      <c r="AV23" s="19">
+        <v>980.2</v>
+      </c>
+      <c r="AW23" s="19">
+        <v>960.7</v>
       </c>
     </row>
     <row r="24" spans="2:49" s="19" customFormat="1">
       <c r="B24" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="C24" s="21">
+        <v>121.86199999999999</v>
+      </c>
+      <c r="D24" s="28">
+        <f>AJ24-C24</f>
+        <v>285.40200000000004</v>
+      </c>
+      <c r="E24" s="21">
+        <v>123.15900000000001</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -2678,47 +2701,555 @@
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
+      <c r="AJ24" s="19">
+        <v>407.26400000000001</v>
+      </c>
       <c r="AU24" s="19">
+        <v>691.9</v>
+      </c>
+      <c r="AV24" s="19">
+        <v>731.7</v>
+      </c>
+      <c r="AW24" s="19">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="2:49" s="19" customFormat="1">
+      <c r="B25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="21">
+        <f>158.216-30.22</f>
+        <v>127.99600000000001</v>
+      </c>
+      <c r="D25" s="28">
+        <f>AJ25-C25</f>
+        <v>-20.552999999999997</v>
+      </c>
+      <c r="E25" s="21">
+        <f>97.581-9.846</f>
+        <v>87.734999999999999</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AJ25" s="19">
+        <f>169.352-61.909</f>
+        <v>107.44300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" s="19" customFormat="1">
+      <c r="B26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="21">
+        <f>C22+C23+C24-C25</f>
+        <v>374.37800000000004</v>
+      </c>
+      <c r="D26" s="21">
+        <f>D22+D23+D24-D25</f>
+        <v>726.20799999999997</v>
+      </c>
+      <c r="E26" s="21">
+        <f>E22+E23+E24-E25</f>
+        <v>408.51900000000001</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AJ26" s="21">
+        <f>AJ22+AJ23+AJ24-AJ25</f>
+        <v>1100.586</v>
+      </c>
+      <c r="AU26" s="19">
+        <f>SUM(AU22:AU24)</f>
+        <v>2509.9</v>
+      </c>
+      <c r="AV26" s="19">
+        <f>SUM(AV22:AV24)</f>
+        <v>2713.3</v>
+      </c>
+      <c r="AW26" s="19">
+        <f>SUM(AW22:AW24)</f>
+        <v>2804.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:49" s="19" customFormat="1">
+      <c r="B27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="21">
+        <f>C21-C26</f>
+        <v>639.84600000000012</v>
+      </c>
+      <c r="D27" s="21">
+        <f>D21-D26</f>
+        <v>482.23499999999979</v>
+      </c>
+      <c r="E27" s="21">
+        <f>E21-E26</f>
+        <v>811.34399999999982</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AJ27" s="21">
+        <f>AJ21-AJ26</f>
+        <v>1122.0809999999999</v>
+      </c>
+      <c r="AU27" s="19">
+        <f>AU21-AU26</f>
+        <v>2716.4999999999995</v>
+      </c>
+      <c r="AV27" s="19">
+        <f>AV21-AV26</f>
+        <v>3130</v>
+      </c>
+      <c r="AW27" s="19">
+        <f>AW21-AW26</f>
+        <v>2927.3999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="2:49" s="19" customFormat="1">
+      <c r="B28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AU28" s="19">
+        <f>-150.8+7</f>
+        <v>-143.80000000000001</v>
+      </c>
+      <c r="AV28" s="19">
+        <f>-170.8+3.9</f>
+        <v>-166.9</v>
+      </c>
+      <c r="AW28" s="19">
+        <f>-165.2+17.4</f>
+        <v>-147.79999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:49" s="19" customFormat="1">
+      <c r="B29" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AU29" s="19">
+        <f>AU27+AU28</f>
+        <v>2572.6999999999994</v>
+      </c>
+      <c r="AV29" s="19">
+        <f>AV27+AV28</f>
+        <v>2963.1</v>
+      </c>
+      <c r="AW29" s="19">
+        <f>AW27+AW28</f>
+        <v>2779.599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:49" s="19" customFormat="1">
+      <c r="B30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="21">
+        <v>137.989</v>
+      </c>
+      <c r="D30" s="28">
+        <f>AJ30-C30</f>
+        <v>85.825999999999993</v>
+      </c>
+      <c r="E30" s="21">
+        <v>193.95</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AJ30" s="19">
+        <v>223.815</v>
+      </c>
+      <c r="AU30" s="19">
+        <v>470.2</v>
+      </c>
+      <c r="AV30" s="19">
+        <v>588.1</v>
+      </c>
+      <c r="AW30" s="19">
+        <v>524.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:49" s="19" customFormat="1">
+      <c r="B31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="21">
+        <f>+C27-C30</f>
+        <v>501.85700000000008</v>
+      </c>
+      <c r="D31" s="21">
+        <f>+D27-D30</f>
+        <v>396.40899999999976</v>
+      </c>
+      <c r="E31" s="21">
+        <f>+E27-E30</f>
+        <v>617.39399999999978</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AJ31" s="21">
+        <f>+AJ27-AJ30</f>
+        <v>898.26599999999985</v>
+      </c>
+      <c r="AU31" s="19">
+        <f>AU29-AU30</f>
+        <v>2102.4999999999995</v>
+      </c>
+      <c r="AV31" s="19">
+        <f>AV29-AV30</f>
+        <v>2375</v>
+      </c>
+      <c r="AW31" s="19">
+        <f>AW29-AW30</f>
+        <v>2254.6999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="2:49" s="24" customFormat="1">
+      <c r="B32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="25">
+        <f>+C31/C33</f>
+        <v>0.85046300408995923</v>
+      </c>
+      <c r="D32" s="25">
+        <f>+D31/D33</f>
+        <v>0.66327492681548916</v>
+      </c>
+      <c r="E32" s="25">
+        <f>+E31/E33</f>
+        <v>1.0600336125949255</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AJ32" s="25">
+        <f>+AJ31/AJ33</f>
+        <v>1.5029863484704999</v>
+      </c>
+      <c r="AU32" s="24">
+        <f>AU31/AU33</f>
+        <v>4.6147429326995315</v>
+      </c>
+      <c r="AV32" s="24">
+        <f>AV31/AV33</f>
+        <v>5.2060065794760595</v>
+      </c>
+      <c r="AW32" s="24">
+        <f>AW31/AW33</f>
+        <v>4.7960382167520299</v>
+      </c>
+    </row>
+    <row r="33" spans="2:49" s="19" customFormat="1">
+      <c r="B33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21">
+        <v>590.098567</v>
+      </c>
+      <c r="D33" s="21">
+        <v>597.65413100000001</v>
+      </c>
+      <c r="E33" s="21">
+        <v>582.42870100000005</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AJ33" s="19">
+        <v>597.65413100000001</v>
+      </c>
+      <c r="AU33" s="19">
+        <v>455.60500999999999</v>
+      </c>
+      <c r="AV33" s="19">
+        <v>456.20380299999999</v>
+      </c>
+      <c r="AW33" s="19">
+        <v>470.117188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:49" s="19" customFormat="1">
+      <c r="B35" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AU35" s="19">
         <v>2488.3000000000002</v>
       </c>
-      <c r="AV24" s="19">
+      <c r="AV35" s="19">
         <v>3621.9</v>
       </c>
-      <c r="AW24" s="19">
+      <c r="AW35" s="19">
         <v>2628.7</v>
       </c>
     </row>
-    <row r="25" spans="2:49">
-      <c r="B25" s="20" t="s">
+    <row r="36" spans="2:49">
+      <c r="B36" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AU25" s="19">
+      <c r="AU36" s="19">
         <v>1206.8</v>
       </c>
-      <c r="AV25" s="19">
+      <c r="AV36" s="19">
         <v>1196.3</v>
       </c>
-      <c r="AW25" s="19">
+      <c r="AW36" s="19">
         <v>1078.8</v>
       </c>
     </row>
-    <row r="26" spans="2:49">
-      <c r="AU26" s="19">
-        <f>+AU24-AU25</f>
+    <row r="37" spans="2:49">
+      <c r="AU37" s="19">
+        <f>+AU35-AU36</f>
         <v>1281.5000000000002</v>
       </c>
-      <c r="AV26" s="19">
-        <f>+AV24-AV25</f>
+      <c r="AV37" s="19">
+        <f>+AV35-AV36</f>
         <v>2425.6000000000004</v>
       </c>
-      <c r="AW26" s="19">
-        <f>+AW24-AW25</f>
+      <c r="AW37" s="19">
+        <f>+AW35-AW36</f>
         <v>1549.8999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2840,18 +3371,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2871,18 +3402,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212CB4BB-6234-4E6B-8AF1-174BA7056159}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CSL AU.xlsx
+++ b/CSL AU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401760C-32A7-4E28-A273-365501F81495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787F435-9623-48B6-8973-E083D72652EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="3465" windowWidth="20310" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29205" yWindow="1350" windowWidth="27645" windowHeight="18960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>Shares</t>
   </si>
@@ -391,13 +391,19 @@
   </si>
   <si>
     <t>Hemophilia A</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -542,7 +548,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,7 +559,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,7 +573,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,7 +582,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -607,15 +612,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,14 +643,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>29818</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:colOff>29818</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -662,8 +666,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30232350" y="0"/>
-          <a:ext cx="0" cy="7934325"/>
+          <a:off x="30377296" y="0"/>
+          <a:ext cx="0" cy="9939130"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -696,7 +700,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1066,7 +1070,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
@@ -1079,7 +1083,7 @@
     <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1097,11 +1101,11 @@
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="36">
         <v>298.64</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>140395.79702432</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="8">
@@ -1170,7 +1174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1187,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="8">
@@ -1194,7 +1198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>139617.19702431999</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
@@ -1230,7 +1234,7 @@
       <c r="G8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>116</v>
       </c>
@@ -1261,7 +1265,7 @@
       <c r="G10" s="7"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
@@ -1276,7 +1280,7 @@
       <c r="G11" s="7"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
@@ -1291,7 +1295,7 @@
       <c r="G12" s="7"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1302,7 +1306,7 @@
       <c r="G13" s="7"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="G14" s="7"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
@@ -1323,7 +1327,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
@@ -1333,7 +1337,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
@@ -1345,7 +1349,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
@@ -1355,8 +1359,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="40" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1369,8 +1373,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="9"/>
@@ -1379,127 +1383,95 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1517,18 +1489,18 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>103</v>
       </c>
@@ -1536,7 +1508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>104</v>
       </c>
@@ -1544,7 +1516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1562,159 +1534,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA37"/>
+  <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
+      <selection pane="bottomRight" activeCell="BF16" sqref="BF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="9.140625" style="16"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="29" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>39813</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <v>39994</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="26">
         <v>40178</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="26">
         <v>40359</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AU1" s="38">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AS1" s="35">
+        <v>43281</v>
+      </c>
+      <c r="AT1" s="35">
+        <v>43646</v>
+      </c>
+      <c r="AU1" s="35">
         <v>44012</v>
       </c>
-      <c r="AV1" s="38">
+      <c r="AV1" s="35">
         <v>44377</v>
       </c>
-      <c r="AW1" s="38">
+      <c r="AW1" s="35">
         <v>44742</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AI2">
@@ -1790,1461 +1768,1573 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
-      <c r="B3" t="s">
+    <row r="3" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AW3">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AW3" s="18">
         <v>2511</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
-      <c r="B4" t="s">
+    <row r="4" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AW4">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AW4" s="18">
         <v>1513</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="27">
         <v>451</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="27">
         <f>+AJ5-C5</f>
         <v>461</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="27">
         <v>494</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AI5">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AI5" s="18">
         <v>731</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="18">
         <v>912</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="18">
         <f>+AW4+AW3</f>
         <v>4024</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="27">
         <v>260</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="27">
         <f>+AJ6-C6</f>
         <v>257</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="27">
         <v>283</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AI6">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AI6" s="18">
         <v>525</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="18">
         <v>517</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="18">
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="27">
         <v>220</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="27">
         <f>+AJ7-C7</f>
         <v>214</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="27">
         <v>247</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AI7">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AI7" s="18">
         <v>407</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="18">
         <v>434</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="18">
         <v>759</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="27">
         <v>133</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="27">
         <f>+AJ8-C8</f>
         <v>134</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="27">
         <v>147</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AI8">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AI8" s="18">
         <v>229</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="18">
         <v>267</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="18">
         <v>1072</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AW9">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AW9" s="18">
         <v>924</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AW10">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AW10" s="18">
         <v>868</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AW11">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AW11" s="18">
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AW12">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AW12" s="18">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AW13">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AW13" s="18">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AW14">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AW14" s="18">
         <v>885</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AW15">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AW15" s="18">
         <f>178+25</f>
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AW16">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AW16" s="18">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:49">
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-    </row>
-    <row r="18" spans="2:49">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-    </row>
-    <row r="19" spans="2:49" s="22" customFormat="1">
-      <c r="B19" s="22" t="s">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+    </row>
+    <row r="18" spans="2:49" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C18" s="22">
         <v>2206.6550000000002</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D18" s="22">
+        <f>AJ18-C18</f>
+        <v>2415.7319999999995</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2317.3919999999998</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AI18" s="21">
+        <v>3556.6619999999998</v>
+      </c>
+      <c r="AJ18" s="21">
+        <v>4622.3869999999997</v>
+      </c>
+      <c r="AS18" s="21">
+        <v>7915.3</v>
+      </c>
+      <c r="AT18" s="21">
+        <v>8538.6</v>
+      </c>
+      <c r="AU18" s="21">
+        <v>9150.7999999999993</v>
+      </c>
+      <c r="AV18" s="21">
+        <v>10310</v>
+      </c>
+      <c r="AW18" s="21">
+        <v>10561.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1192.431</v>
+      </c>
+      <c r="D19" s="27">
         <f>AJ19-C19</f>
-        <v>2415.7319999999995</v>
-      </c>
-      <c r="E19" s="23">
-        <v>2317.3919999999998</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AI19" s="22">
-        <v>3556.6619999999998</v>
-      </c>
-      <c r="AJ19" s="22">
-        <v>4622.3869999999997</v>
-      </c>
-      <c r="AU19" s="22">
-        <v>9150.7999999999993</v>
-      </c>
-      <c r="AV19" s="22">
-        <v>10310</v>
-      </c>
-      <c r="AW19" s="22">
-        <v>10561.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:49" s="19" customFormat="1">
-      <c r="B20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="21">
-        <v>1192.431</v>
-      </c>
-      <c r="D20" s="28">
-        <f>AJ20-C20</f>
         <v>1207.2889999999998</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E19" s="20">
         <v>1097.529</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AJ20" s="19">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AJ19" s="18">
         <v>2399.7199999999998</v>
       </c>
-      <c r="AU20" s="19">
+      <c r="AS19" s="18">
+        <v>3531.6</v>
+      </c>
+      <c r="AT19" s="18">
+        <v>3761.2</v>
+      </c>
+      <c r="AU19" s="18">
         <v>3924.4</v>
       </c>
-      <c r="AV20" s="19">
+      <c r="AV19" s="18">
         <v>4466.7</v>
       </c>
-      <c r="AW20" s="19">
+      <c r="AW19" s="18">
         <v>4829.6000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:49" s="19" customFormat="1">
-      <c r="B21" s="20" t="s">
+    <row r="20" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21">
-        <f>+C19-C20</f>
+      <c r="C20" s="20">
+        <f>+C18-C19</f>
         <v>1014.2240000000002</v>
       </c>
-      <c r="D21" s="21">
-        <f>+D19-D20</f>
+      <c r="D20" s="20">
+        <f>+D18-D19</f>
         <v>1208.4429999999998</v>
       </c>
-      <c r="E21" s="21">
-        <f>+E19-E20</f>
+      <c r="E20" s="20">
+        <f>+E18-E19</f>
         <v>1219.8629999999998</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AJ21" s="19">
-        <f>+AJ19-AJ20</f>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AJ20" s="18">
+        <f>+AJ18-AJ19</f>
         <v>2222.6669999999999</v>
       </c>
-      <c r="AU21" s="19">
-        <f>AU19-AU20</f>
+      <c r="AS20" s="18">
+        <f t="shared" ref="AS20" si="1">+AS18-AS19</f>
+        <v>4383.7000000000007</v>
+      </c>
+      <c r="AT20" s="18">
+        <f>+AT18-AT19</f>
+        <v>4777.4000000000005</v>
+      </c>
+      <c r="AU20" s="18">
+        <f>AU18-AU19</f>
         <v>5226.3999999999996</v>
       </c>
-      <c r="AV21" s="19">
-        <f>AV19-AV20</f>
+      <c r="AV20" s="18">
+        <f>AV18-AV19</f>
         <v>5843.3</v>
       </c>
-      <c r="AW21" s="19">
-        <f>AW19-AW20</f>
+      <c r="AW20" s="18">
+        <f>AW18-AW19</f>
         <v>5732.2999999999993</v>
       </c>
     </row>
-    <row r="22" spans="2:49" s="19" customFormat="1">
-      <c r="B22" s="20" t="s">
+    <row r="21" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C21" s="20">
         <v>153.03399999999999</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D21" s="27">
+        <f>AJ21-C21</f>
+        <v>158.58100000000002</v>
+      </c>
+      <c r="E21" s="20">
+        <v>146.92400000000001</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AJ21" s="18">
+        <v>311.61500000000001</v>
+      </c>
+      <c r="AS21" s="18">
+        <v>702.4</v>
+      </c>
+      <c r="AT21" s="18">
+        <v>831.8</v>
+      </c>
+      <c r="AU21" s="18">
+        <v>921.8</v>
+      </c>
+      <c r="AV21" s="18">
+        <v>1001.4</v>
+      </c>
+      <c r="AW21" s="18">
+        <v>1156.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="20">
+        <v>227.47800000000001</v>
+      </c>
+      <c r="D22" s="27">
         <f>AJ22-C22</f>
-        <v>158.58100000000002</v>
-      </c>
-      <c r="E22" s="21">
-        <v>146.92400000000001</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AJ22" s="19">
-        <v>311.61500000000001</v>
-      </c>
-      <c r="AU22" s="19">
-        <v>921.8</v>
-      </c>
-      <c r="AV22" s="19">
-        <v>1001.4</v>
-      </c>
-      <c r="AW22" s="19">
-        <v>1156.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:49" s="19" customFormat="1">
-      <c r="B23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="21">
-        <v>227.47800000000001</v>
-      </c>
-      <c r="D23" s="28">
+        <v>261.67199999999997</v>
+      </c>
+      <c r="E22" s="20">
+        <v>226.17099999999999</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AJ22" s="18">
+        <v>489.15</v>
+      </c>
+      <c r="AS22" s="18">
+        <v>786.2</v>
+      </c>
+      <c r="AT22" s="18">
+        <v>866.8</v>
+      </c>
+      <c r="AU22" s="18">
+        <v>896.2</v>
+      </c>
+      <c r="AV22" s="18">
+        <v>980.2</v>
+      </c>
+      <c r="AW22" s="18">
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="20">
+        <v>121.86199999999999</v>
+      </c>
+      <c r="D23" s="27">
         <f>AJ23-C23</f>
-        <v>261.67199999999997</v>
-      </c>
-      <c r="E23" s="21">
-        <v>226.17099999999999</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AJ23" s="19">
-        <v>489.15</v>
-      </c>
-      <c r="AU23" s="19">
-        <v>896.2</v>
-      </c>
-      <c r="AV23" s="19">
-        <v>980.2</v>
-      </c>
-      <c r="AW23" s="19">
-        <v>960.7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:49" s="19" customFormat="1">
-      <c r="B24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="21">
-        <v>121.86199999999999</v>
-      </c>
-      <c r="D24" s="28">
-        <f>AJ24-C24</f>
         <v>285.40200000000004</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E23" s="20">
         <v>123.15900000000001</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AJ24" s="19">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AJ23" s="18">
         <v>407.26400000000001</v>
       </c>
-      <c r="AU24" s="19">
+      <c r="AS23" s="18">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="AT23" s="18">
+        <v>574.79999999999995</v>
+      </c>
+      <c r="AU23" s="18">
         <v>691.9</v>
       </c>
-      <c r="AV24" s="19">
+      <c r="AV23" s="18">
         <v>731.7</v>
       </c>
-      <c r="AW24" s="19">
+      <c r="AW23" s="18">
         <v>688</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="19" customFormat="1">
-      <c r="B25" s="20" t="s">
+    <row r="24" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C24" s="20">
         <f>158.216-30.22</f>
         <v>127.99600000000001</v>
       </c>
-      <c r="D25" s="28">
-        <f>AJ25-C25</f>
+      <c r="D24" s="27">
+        <f>AJ24-C24</f>
         <v>-20.552999999999997</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E24" s="20">
         <f>97.581-9.846</f>
         <v>87.734999999999999</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AJ25" s="19">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AJ24" s="18">
         <f>169.352-61.909</f>
         <v>107.44300000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="19" customFormat="1">
-      <c r="B26" s="20" t="s">
+    <row r="25" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="21">
-        <f>C22+C23+C24-C25</f>
+      <c r="C25" s="20">
+        <f>C21+C22+C23-C24</f>
         <v>374.37800000000004</v>
       </c>
-      <c r="D26" s="21">
-        <f>D22+D23+D24-D25</f>
+      <c r="D25" s="20">
+        <f>D21+D22+D23-D24</f>
         <v>726.20799999999997</v>
       </c>
-      <c r="E26" s="21">
-        <f>E22+E23+E24-E25</f>
+      <c r="E25" s="20">
+        <f>E21+E22+E23-E24</f>
         <v>408.51900000000001</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AJ26" s="21">
-        <f>AJ22+AJ23+AJ24-AJ25</f>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AJ25" s="20">
+        <f>AJ21+AJ22+AJ23-AJ24</f>
         <v>1100.586</v>
       </c>
-      <c r="AU26" s="19">
-        <f>SUM(AU22:AU24)</f>
+      <c r="AS25" s="18">
+        <f t="shared" ref="AS25:AT25" si="2">SUM(AS21:AS23)</f>
+        <v>2003.3999999999999</v>
+      </c>
+      <c r="AT25" s="18">
+        <f>SUM(AT21:AT23)</f>
+        <v>2273.3999999999996</v>
+      </c>
+      <c r="AU25" s="18">
+        <f>SUM(AU21:AU23)</f>
         <v>2509.9</v>
       </c>
-      <c r="AV26" s="19">
-        <f>SUM(AV22:AV24)</f>
+      <c r="AV25" s="18">
+        <f>SUM(AV21:AV23)</f>
         <v>2713.3</v>
       </c>
-      <c r="AW26" s="19">
-        <f>SUM(AW22:AW24)</f>
+      <c r="AW25" s="18">
+        <f>SUM(AW21:AW23)</f>
         <v>2804.9</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="19" customFormat="1">
-      <c r="B27" s="20" t="s">
+    <row r="26" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="21">
-        <f>C21-C26</f>
+      <c r="C26" s="20">
+        <f>C20-C25</f>
         <v>639.84600000000012</v>
       </c>
-      <c r="D27" s="21">
-        <f>D21-D26</f>
+      <c r="D26" s="20">
+        <f>D20-D25</f>
         <v>482.23499999999979</v>
       </c>
-      <c r="E27" s="21">
-        <f>E21-E26</f>
+      <c r="E26" s="20">
+        <f>E20-E25</f>
         <v>811.34399999999982</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AJ27" s="21">
-        <f>AJ21-AJ26</f>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AJ26" s="20">
+        <f>AJ20-AJ25</f>
         <v>1122.0809999999999</v>
       </c>
-      <c r="AU27" s="19">
-        <f>AU21-AU26</f>
+      <c r="AS26" s="18">
+        <f t="shared" ref="AS26" si="3">AS20-AS25</f>
+        <v>2380.3000000000011</v>
+      </c>
+      <c r="AT26" s="18">
+        <f>AT20-AT25</f>
+        <v>2504.0000000000009</v>
+      </c>
+      <c r="AU26" s="18">
+        <f>AU20-AU25</f>
         <v>2716.4999999999995</v>
       </c>
-      <c r="AV27" s="19">
-        <f>AV21-AV26</f>
+      <c r="AV26" s="18">
+        <f>AV20-AV25</f>
         <v>3130</v>
       </c>
-      <c r="AW27" s="19">
-        <f>AW21-AW26</f>
+      <c r="AW26" s="18">
+        <f>AW20-AW25</f>
         <v>2927.3999999999992</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="19" customFormat="1">
-      <c r="B28" s="20" t="s">
+    <row r="27" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AU28" s="19">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AS27" s="18">
+        <f>-108.4+9.3</f>
+        <v>-99.100000000000009</v>
+      </c>
+      <c r="AT27" s="18">
+        <f>-176.7+13.8</f>
+        <v>-162.89999999999998</v>
+      </c>
+      <c r="AU27" s="18">
         <f>-150.8+7</f>
         <v>-143.80000000000001</v>
       </c>
-      <c r="AV28" s="19">
+      <c r="AV27" s="18">
         <f>-170.8+3.9</f>
         <v>-166.9</v>
       </c>
-      <c r="AW28" s="19">
+      <c r="AW27" s="18">
         <f>-165.2+17.4</f>
         <v>-147.79999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:49" s="19" customFormat="1">
-      <c r="B29" s="20" t="s">
+    <row r="28" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AU29" s="19">
-        <f>AU27+AU28</f>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AS28" s="18">
+        <f t="shared" ref="AS28" si="4">AS26+AS27</f>
+        <v>2281.2000000000012</v>
+      </c>
+      <c r="AT28" s="18">
+        <f>AT26+AT27</f>
+        <v>2341.1000000000008</v>
+      </c>
+      <c r="AU28" s="18">
+        <f>AU26+AU27</f>
         <v>2572.6999999999994</v>
       </c>
-      <c r="AV29" s="19">
-        <f>AV27+AV28</f>
+      <c r="AV28" s="18">
+        <f>AV26+AV27</f>
         <v>2963.1</v>
       </c>
-      <c r="AW29" s="19">
-        <f>AW27+AW28</f>
+      <c r="AW28" s="18">
+        <f>AW26+AW27</f>
         <v>2779.599999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="19" customFormat="1">
-      <c r="B30" s="20" t="s">
+    <row r="29" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C29" s="20">
         <v>137.989</v>
       </c>
-      <c r="D30" s="28">
-        <f>AJ30-C30</f>
+      <c r="D29" s="27">
+        <f>AJ29-C29</f>
         <v>85.825999999999993</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E29" s="20">
         <v>193.95</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AJ30" s="19">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AJ29" s="18">
         <v>223.815</v>
       </c>
-      <c r="AU30" s="19">
+      <c r="AS29" s="18">
+        <v>552.29999999999995</v>
+      </c>
+      <c r="AT29" s="18">
+        <v>422.4</v>
+      </c>
+      <c r="AU29" s="18">
         <v>470.2</v>
       </c>
-      <c r="AV30" s="19">
+      <c r="AV29" s="18">
         <v>588.1</v>
       </c>
-      <c r="AW30" s="19">
+      <c r="AW29" s="18">
         <v>524.9</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="19" customFormat="1">
-      <c r="B31" s="20" t="s">
+    <row r="30" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="21">
-        <f>+C27-C30</f>
+      <c r="C30" s="20">
+        <f>+C26-C29</f>
         <v>501.85700000000008</v>
       </c>
-      <c r="D31" s="21">
-        <f>+D27-D30</f>
+      <c r="D30" s="20">
+        <f>+D26-D29</f>
         <v>396.40899999999976</v>
       </c>
-      <c r="E31" s="21">
-        <f>+E27-E30</f>
+      <c r="E30" s="20">
+        <f>+E26-E29</f>
         <v>617.39399999999978</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AJ31" s="21">
-        <f>+AJ27-AJ30</f>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AJ30" s="20">
+        <f>+AJ26-AJ29</f>
         <v>898.26599999999985</v>
       </c>
-      <c r="AU31" s="19">
-        <f>AU29-AU30</f>
+      <c r="AS30" s="18">
+        <f t="shared" ref="AS30" si="5">AS28-AS29</f>
+        <v>1728.9000000000012</v>
+      </c>
+      <c r="AT30" s="18">
+        <f>AT28-AT29</f>
+        <v>1918.7000000000007</v>
+      </c>
+      <c r="AU30" s="18">
+        <f>AU28-AU29</f>
         <v>2102.4999999999995</v>
       </c>
-      <c r="AV31" s="19">
-        <f>AV29-AV30</f>
+      <c r="AV30" s="18">
+        <f>AV28-AV29</f>
         <v>2375</v>
       </c>
-      <c r="AW31" s="19">
-        <f>AW29-AW30</f>
+      <c r="AW30" s="18">
+        <f>AW28-AW29</f>
         <v>2254.6999999999989</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="24" customFormat="1">
-      <c r="B32" s="24" t="s">
+    <row r="31" spans="2:49" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25">
-        <f>+C31/C33</f>
+      <c r="C31" s="24">
+        <f>+C30/C32</f>
         <v>0.85046300408995923</v>
       </c>
-      <c r="D32" s="25">
-        <f>+D31/D33</f>
+      <c r="D31" s="24">
+        <f>+D30/D32</f>
         <v>0.66327492681548916</v>
       </c>
-      <c r="E32" s="25">
-        <f>+E31/E33</f>
+      <c r="E31" s="24">
+        <f>+E30/E32</f>
         <v>1.0600336125949255</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AJ32" s="25">
-        <f>+AJ31/AJ33</f>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AJ31" s="24">
+        <f>+AJ30/AJ32</f>
         <v>1.5029863484704999</v>
       </c>
-      <c r="AU32" s="24">
-        <f>AU31/AU33</f>
+      <c r="AS31" s="23">
+        <f t="shared" ref="AS31" si="6">AS30/AS32</f>
+        <v>3.8091850306462058</v>
+      </c>
+      <c r="AT31" s="23">
+        <f>AT30/AT32</f>
+        <v>4.2259526094930306</v>
+      </c>
+      <c r="AU31" s="23">
+        <f>AU30/AU32</f>
         <v>4.6147429326995315</v>
       </c>
-      <c r="AV32" s="24">
-        <f>AV31/AV33</f>
+      <c r="AV31" s="23">
+        <f>AV30/AV32</f>
         <v>5.2060065794760595</v>
       </c>
-      <c r="AW32" s="24">
-        <f>AW31/AW33</f>
+      <c r="AW31" s="23">
+        <f>AW30/AW32</f>
         <v>4.7960382167520299</v>
       </c>
     </row>
-    <row r="33" spans="2:49" s="19" customFormat="1">
-      <c r="B33" s="20" t="s">
+    <row r="32" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C32" s="20">
         <v>590.098567</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D32" s="20">
         <v>597.65413100000001</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E32" s="20">
         <v>582.42870100000005</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AJ33" s="19">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AJ32" s="18">
         <v>597.65413100000001</v>
       </c>
-      <c r="AU33" s="19">
+      <c r="AS32" s="18">
+        <v>453.87661300000002</v>
+      </c>
+      <c r="AT32" s="18">
+        <v>454.02780799999999</v>
+      </c>
+      <c r="AU32" s="18">
         <v>455.60500999999999</v>
       </c>
-      <c r="AV33" s="19">
+      <c r="AV32" s="18">
         <v>456.20380299999999</v>
       </c>
-      <c r="AW33" s="19">
+      <c r="AW32" s="18">
         <v>470.117188</v>
       </c>
     </row>
-    <row r="35" spans="2:49" s="19" customFormat="1">
-      <c r="B35" s="20" t="s">
+    <row r="34" spans="2:49" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AU35" s="19">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AS34" s="18">
+        <v>1902.1</v>
+      </c>
+      <c r="AT34" s="18">
+        <v>1644.4</v>
+      </c>
+      <c r="AU34" s="18">
         <v>2488.3000000000002</v>
       </c>
-      <c r="AV35" s="19">
+      <c r="AV34" s="18">
         <v>3621.9</v>
       </c>
-      <c r="AW35" s="19">
+      <c r="AW34" s="18">
         <v>2628.7</v>
       </c>
     </row>
-    <row r="36" spans="2:49">
-      <c r="B36" s="20" t="s">
+    <row r="35" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B35" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU36" s="19">
+      <c r="AS35" s="18">
+        <v>778.8</v>
+      </c>
+      <c r="AT35" s="18">
+        <v>1117.5999999999999</v>
+      </c>
+      <c r="AU35" s="18">
         <v>1206.8</v>
       </c>
-      <c r="AV36" s="19">
+      <c r="AV35" s="18">
         <v>1196.3</v>
       </c>
-      <c r="AW36" s="19">
+      <c r="AW35" s="18">
         <v>1078.8</v>
       </c>
     </row>
-    <row r="37" spans="2:49">
-      <c r="AU37" s="19">
-        <f>+AU35-AU36</f>
+    <row r="36" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS36" s="18">
+        <f t="shared" ref="AS36:AT36" si="7">+AS34-AS35</f>
+        <v>1123.3</v>
+      </c>
+      <c r="AT36" s="18">
+        <f t="shared" si="7"/>
+        <v>526.80000000000018</v>
+      </c>
+      <c r="AU36" s="18">
+        <f>+AU34-AU35</f>
         <v>1281.5000000000002</v>
       </c>
-      <c r="AV37" s="19">
-        <f>+AV35-AV36</f>
+      <c r="AV36" s="18">
+        <f>+AV34-AV35</f>
         <v>2425.6000000000004</v>
       </c>
-      <c r="AW37" s="19">
-        <f>+AW35-AW36</f>
+      <c r="AW36" s="18">
+        <f>+AW34-AW35</f>
         <v>1549.8999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT38" s="38">
+        <f t="shared" ref="AT38:AW38" si="8">AT18/AS18-1</f>
+        <v>7.874622566421996E-2</v>
+      </c>
+      <c r="AU38" s="38">
+        <f t="shared" si="8"/>
+        <v>7.1697936429859555E-2</v>
+      </c>
+      <c r="AV38" s="38">
+        <f t="shared" si="8"/>
+        <v>0.1266774489662108</v>
+      </c>
+      <c r="AW38" s="38">
+        <f>AW18/AV18-1</f>
+        <v>2.4432589718719644E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3257,6 +3347,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3370,33 +3475,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0DC62-5BCD-429F-A10A-38246373C0FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3411,9 +3493,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0DC62-5BCD-429F-A10A-38246373C0FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CSL AU.xlsx
+++ b/CSL AU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3B10B-3977-4441-9938-29DF35CFEA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439CAB32-A695-4816-A132-0CB2CF5813AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19950" yWindow="465" windowWidth="28410" windowHeight="20415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24885" yWindow="855" windowWidth="23910" windowHeight="19410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>2H23</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>CEO: Paul Perreault</t>
   </si>
   <si>
@@ -532,12 +529,15 @@
   </si>
   <si>
     <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -677,7 +677,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -708,49 +708,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +752,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E01F711A-1862-48EB-9392-444721FF5E4B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -877,9 +872,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -917,9 +912,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,26 +947,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1004,26 +982,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1199,23 +1160,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="25" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="12.42578125" style="19" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="19"/>
-    <col min="9" max="9" width="11" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
@@ -1232,562 +1190,563 @@
         <v>14</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>485.19930699999998</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <f>J3*J2</f>
+        <v>148956.18724899998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4">
+        <f>163+1657</f>
+        <v>1820</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="20">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="G6" s="23"/>
+      <c r="I6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4">
+        <f>11239+944</f>
+        <v>12183</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="I7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="4">
+        <f>J4-J5+J6</f>
+        <v>159319.18724899998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="I8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J7/1.5</f>
+        <v>106212.79149933333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <v>470.117188</v>
-      </c>
-      <c r="K3" s="26" t="s">
+      <c r="D15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="I16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="25">
-        <f>J3*J2</f>
-        <v>144796.09390400001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="25">
-        <v>10436.4</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="I6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="25">
-        <f>5163.8+4494</f>
-        <v>9657.7999999999993</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="I17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="I7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="25">
-        <f>J4-J5+J6</f>
-        <v>144017.493904</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="I8" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="25">
-        <f>J7/1.5</f>
-        <v>96011.662602666664</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="I16" s="19" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="I17" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="37" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="27" t="s">
+      <c r="C31" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="D31" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
+      <c r="C32" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="27" t="s">
+      <c r="C33" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="27" t="s">
+      <c r="C36" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="D36" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="27" t="s">
+      <c r="C37" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="D37" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="34"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="27" t="s">
+      <c r="C39" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="34"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1803,11 +1762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX3" sqref="AX3"/>
+      <selection pane="bottomRight" activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1874,7 +1833,7 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -2115,7 +2074,7 @@
     </row>
     <row r="4" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2346,7 +2305,7 @@
     </row>
     <row r="9" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2381,7 +2340,7 @@
     </row>
     <row r="10" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2416,7 +2375,7 @@
     </row>
     <row r="11" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2481,7 +2440,7 @@
     </row>
     <row r="13" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2516,7 +2475,7 @@
     </row>
     <row r="14" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2551,7 +2510,7 @@
     </row>
     <row r="15" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2586,7 +2545,7 @@
     </row>
     <row r="16" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2622,7 +2581,7 @@
     </row>
     <row r="17" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -3682,7 +3641,7 @@
     </row>
     <row r="37" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS37" s="4">
         <f t="shared" ref="AS37:AT37" si="17">+AS35-AS36</f>
@@ -3707,7 +3666,7 @@
     </row>
     <row r="39" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT39" s="14">
         <f t="shared" ref="AT39:AV39" si="18">AT19/AS19-1</f>
@@ -3754,7 +3713,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -3762,10 +3721,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3773,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3785,6 +3744,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3898,33 +3872,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0DC62-5BCD-429F-A10A-38246373C0FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3939,9 +3890,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0DC62-5BCD-429F-A10A-38246373C0FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CSL AU.xlsx
+++ b/CSL AU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439CAB32-A695-4816-A132-0CB2CF5813AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFB77E-C1B0-4AAD-8EB0-B0ABFB90FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24885" yWindow="855" windowWidth="23910" windowHeight="19410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22130" yWindow="1220" windowWidth="16450" windowHeight="18170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="186">
   <si>
     <t>Shares</t>
   </si>
@@ -532,6 +532,66 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>1H24</t>
+  </si>
+  <si>
+    <t>2H24</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>Non-Dialysis</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>1H25</t>
+  </si>
+  <si>
+    <t>Afluria</t>
+  </si>
+  <si>
+    <t>Pandemic Research Fees</t>
+  </si>
+  <si>
+    <t>Ferinject/Injectafer</t>
+  </si>
+  <si>
+    <t>Mircera</t>
+  </si>
+  <si>
+    <t>Venofer</t>
+  </si>
+  <si>
+    <t>Veltassa</t>
+  </si>
+  <si>
+    <t>Velphoro</t>
+  </si>
+  <si>
+    <t>Tavneos</t>
+  </si>
+  <si>
+    <t>Maltofer</t>
+  </si>
+  <si>
+    <t>Berinert</t>
+  </si>
+  <si>
+    <t>Haemocomplettan</t>
+  </si>
+  <si>
+    <t>Humate</t>
+  </si>
+  <si>
+    <t>Haemate</t>
   </si>
 </sst>
 </file>
@@ -770,15 +830,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>29818</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>29818</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -828,7 +888,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1160,23 +1220,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1262,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1285,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1306,7 @@
         <v>148956.18724899998</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1332,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -1298,7 +1358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>41</v>
       </c>
@@ -1319,7 +1379,7 @@
         <v>159319.18724899998</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>42</v>
       </c>
@@ -1340,7 +1400,7 @@
         <v>106212.79149933333</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>43</v>
       </c>
@@ -1357,7 +1417,7 @@
       <c r="G9" s="23"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>113</v>
       </c>
@@ -1372,7 +1432,7 @@
       <c r="G10" s="23"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>155</v>
       </c>
@@ -1387,7 +1447,7 @@
       <c r="G11" s="23"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>156</v>
       </c>
@@ -1402,7 +1462,7 @@
       <c r="G12" s="23"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>153</v>
       </c>
@@ -1417,7 +1477,7 @@
       <c r="G13" s="23"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1494,7 @@
       <c r="G14" s="23"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>49</v>
       </c>
@@ -1451,7 +1511,7 @@
       <c r="G15" s="23"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +1525,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>38</v>
       </c>
@@ -1479,7 +1539,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
@@ -1489,7 +1549,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>40</v>
       </c>
@@ -1499,7 +1559,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>55</v>
       </c>
@@ -1513,7 +1573,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>139</v>
       </c>
@@ -1527,7 +1587,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1597,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>53</v>
       </c>
@@ -1551,7 +1611,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
@@ -1561,7 +1621,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -1571,7 +1631,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>50</v>
       </c>
@@ -1583,7 +1643,7 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>51</v>
       </c>
@@ -1595,7 +1655,7 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>60</v>
       </c>
@@ -1605,7 +1665,7 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>61</v>
       </c>
@@ -1617,7 +1677,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1689,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>131</v>
       </c>
@@ -1641,7 +1701,7 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>134</v>
       </c>
@@ -1653,7 +1713,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>137</v>
       </c>
@@ -1662,7 +1722,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>141</v>
       </c>
@@ -1674,7 +1734,7 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
         <v>144</v>
       </c>
@@ -1686,7 +1746,7 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
         <v>147</v>
       </c>
@@ -1698,7 +1758,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
         <v>150</v>
       </c>
@@ -1710,7 +1770,7 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="24" t="s">
         <v>159</v>
       </c>
@@ -1722,7 +1782,7 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
         <v>160</v>
       </c>
@@ -1734,7 +1794,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
         <v>157</v>
       </c>
@@ -1760,24 +1820,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ39"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AF40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW3" sqref="AW3"/>
+      <selection pane="bottomRight" activeCell="AG56" sqref="AG56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="29" width="9.140625" style="1"/>
-    <col min="45" max="52" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="29" width="9.1796875" style="1"/>
+    <col min="51" max="58" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1815,23 +1875,23 @@
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AS1" s="13">
+      <c r="AY1" s="13">
         <v>43281</v>
       </c>
-      <c r="AT1" s="13">
+      <c r="AZ1" s="13">
         <v>43646</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="BA1" s="13">
         <v>44012</v>
       </c>
-      <c r="AV1" s="13">
+      <c r="BB1" s="13">
         <v>44377</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="BC1" s="13">
         <v>44742</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>119</v>
       </c>
@@ -1925,118 +1985,130 @@
       <c r="AF2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AI2">
+      <c r="AG2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AO2">
         <v>2008</v>
       </c>
-      <c r="AJ2">
+      <c r="AP2">
         <v>2009</v>
       </c>
-      <c r="AK2">
+      <c r="AQ2">
         <v>2010</v>
       </c>
-      <c r="AL2">
+      <c r="AR2">
         <v>2011</v>
       </c>
-      <c r="AM2">
-        <f>AL2+1</f>
+      <c r="AS2">
+        <f>AR2+1</f>
         <v>2012</v>
       </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2:BA2" si="0">AM2+1</f>
+      <c r="AT2">
+        <f t="shared" ref="AT2:BG2" si="0">AS2+1</f>
         <v>2013</v>
       </c>
-      <c r="AO2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AP2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AQ2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AR2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AS2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AT2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AU2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AV2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AW2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AX2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AY2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AZ2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="BA2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="BB2">
-        <f t="shared" ref="BB2" si="1">BA2+1</f>
+      <c r="BH2">
+        <f t="shared" ref="BH2" si="1">BG2+1</f>
         <v>2027</v>
       </c>
-      <c r="BC2">
-        <f t="shared" ref="BC2" si="2">BB2+1</f>
+      <c r="BI2">
+        <f t="shared" ref="BI2" si="2">BH2+1</f>
         <v>2028</v>
       </c>
-      <c r="BD2">
-        <f t="shared" ref="BD2" si="3">BC2+1</f>
+      <c r="BJ2">
+        <f t="shared" ref="BJ2" si="3">BI2+1</f>
         <v>2029</v>
       </c>
-      <c r="BE2">
-        <f t="shared" ref="BE2" si="4">BD2+1</f>
+      <c r="BK2">
+        <f t="shared" ref="BK2" si="4">BJ2+1</f>
         <v>2030</v>
       </c>
-      <c r="BF2">
-        <f t="shared" ref="BF2" si="5">BE2+1</f>
+      <c r="BL2">
+        <f t="shared" ref="BL2" si="5">BK2+1</f>
         <v>2031</v>
       </c>
-      <c r="BG2">
-        <f t="shared" ref="BG2" si="6">BF2+1</f>
+      <c r="BM2">
+        <f t="shared" ref="BM2" si="6">BL2+1</f>
         <v>2032</v>
       </c>
-      <c r="BH2">
-        <f t="shared" ref="BH2" si="7">BG2+1</f>
+      <c r="BN2">
+        <f t="shared" ref="BN2" si="7">BM2+1</f>
         <v>2033</v>
       </c>
-      <c r="BI2">
-        <f t="shared" ref="BI2" si="8">BH2+1</f>
+      <c r="BO2">
+        <f t="shared" ref="BO2" si="8">BN2+1</f>
         <v>2034</v>
       </c>
-      <c r="BJ2">
-        <f t="shared" ref="BJ2" si="9">BI2+1</f>
+      <c r="BP2">
+        <f t="shared" ref="BP2" si="9">BO2+1</f>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+    <row r="3" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2066,15 +2138,22 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
+      <c r="AE3" s="12">
+        <v>1009</v>
+      </c>
       <c r="AF3" s="12"/>
-      <c r="AW3" s="4">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>104</v>
+      <c r="AG3" s="12">
+        <v>1018</v>
+      </c>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+    </row>
+    <row r="4" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2104,26 +2183,26 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
+      <c r="AE4" s="12">
+        <v>771</v>
+      </c>
       <c r="AF4" s="12"/>
-      <c r="AW4" s="4">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG4" s="12">
+        <v>786</v>
+      </c>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+    </row>
+    <row r="5" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="12">
-        <v>451</v>
-      </c>
-      <c r="D5" s="12">
-        <f>+AJ5-C5</f>
-        <v>461</v>
-      </c>
-      <c r="E5" s="12">
-        <v>494</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2148,31 +2227,27 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
-      <c r="AI5" s="4">
-        <v>731</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>912</v>
-      </c>
-      <c r="AW5" s="4">
-        <f>+AW4+AW3</f>
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12">
+        <v>136</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12">
+        <v>200</v>
+      </c>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+    </row>
+    <row r="6" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12">
-        <v>260</v>
-      </c>
-      <c r="D6" s="12">
-        <f>+AJ6-C6</f>
-        <v>257</v>
-      </c>
-      <c r="E6" s="12">
-        <v>283</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -2197,30 +2272,25 @@
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
-      <c r="AI6" s="4">
-        <v>525</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>517</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12">
-        <v>220</v>
-      </c>
-      <c r="D7" s="12">
-        <f>+AJ7-C7</f>
-        <v>214</v>
-      </c>
-      <c r="E7" s="12">
-        <v>247</v>
-      </c>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12">
+        <v>49</v>
+      </c>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -2245,30 +2315,23 @@
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
-      <c r="AI7" s="4">
-        <v>407</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>434</v>
-      </c>
-      <c r="AW7" s="4">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="12">
-        <v>133</v>
-      </c>
-      <c r="D8" s="12">
-        <f>+AJ8-C8</f>
-        <v>134</v>
-      </c>
-      <c r="E8" s="12">
-        <v>147</v>
-      </c>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+    </row>
+    <row r="8" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2293,19 +2356,22 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AI8" s="4">
-        <v>229</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>267</v>
-      </c>
-      <c r="AW8" s="4">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>105</v>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="BC8" s="4">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2334,17 +2400,33 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AW9" s="4">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="BC9" s="4">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="12">
+        <v>451</v>
+      </c>
+      <c r="D10" s="12">
+        <f>+AP10-C10</f>
+        <v>461</v>
+      </c>
+      <c r="E10" s="12">
+        <v>494</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2369,17 +2451,37 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
-      <c r="AW10" s="4">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE10" s="4">
+        <v>4675</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>5666</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>731</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>912</v>
+      </c>
+      <c r="BC10" s="4">
+        <f>+BC9+BC8</f>
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="C11" s="12">
+        <v>260</v>
+      </c>
+      <c r="D11" s="12">
+        <f>+AP11-C11</f>
+        <v>257</v>
+      </c>
+      <c r="E11" s="12">
+        <v>283</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2404,15 +2506,30 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
-      <c r="AW11" s="4">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="AO11" s="4">
+        <v>525</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>517</v>
+      </c>
+      <c r="BC11" s="4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12">
+        <v>220</v>
+      </c>
+      <c r="D12" s="12">
+        <f>+AP12-C12</f>
+        <v>214</v>
+      </c>
+      <c r="E12" s="12">
+        <v>247</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2437,14 +2554,36 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
-    </row>
-    <row r="13" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE12" s="4">
+        <v>1193</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>1313</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>407</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>434</v>
+      </c>
+      <c r="BC12" s="4">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="12">
+        <v>133</v>
+      </c>
+      <c r="D13" s="12">
+        <f>+AP13-C13</f>
+        <v>134</v>
+      </c>
+      <c r="E13" s="12">
+        <v>147</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2469,13 +2608,25 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
-      <c r="AW13" s="4">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE13" s="4">
+        <v>1109</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>1209</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>229</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>267</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2504,13 +2655,13 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
-      <c r="AW14" s="4">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC14" s="4">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2539,13 +2690,19 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
-      <c r="AW15" s="4">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE15" s="4">
+        <v>1831</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>1940</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2574,15 +2731,18 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
-      <c r="AW16" s="4">
-        <f>178+25</f>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="AE16" s="4">
+        <v>375</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>441</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2610,1078 +2770,2217 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AW17" s="4">
+    </row>
+    <row r="18" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AI18" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AI19" s="4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AI20" s="4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AI21" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AI22" s="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AI23" s="4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AI24" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AI25" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AI26" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AI27" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AI28" s="4">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AI29" s="4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AI30" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AI31" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AI32" s="4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AI33" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AI34" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AI35" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AI36" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AI37" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AI38" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+    </row>
+    <row r="40" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AE40" s="4">
+        <v>148</v>
+      </c>
+      <c r="BC40" s="4">
+        <v>228</v>
+      </c>
+      <c r="BE40" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AE41" s="4">
+        <v>599</v>
+      </c>
+      <c r="BC41" s="4">
+        <v>486</v>
+      </c>
+      <c r="BE41" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="42" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AE42" s="4">
+        <v>893</v>
+      </c>
+      <c r="BC42" s="4">
+        <v>885</v>
+      </c>
+      <c r="BE42" s="4">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="43" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AE43" s="4">
+        <v>211</v>
+      </c>
+      <c r="BC43" s="4">
+        <f>178+25</f>
+        <v>203</v>
+      </c>
+      <c r="BE43" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AE44" s="4">
+        <v>156</v>
+      </c>
+      <c r="BC44" s="4">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="2:62" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="BE44" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AE45" s="4">
+        <v>136</v>
+      </c>
+      <c r="BE45" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:68" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C46" s="8">
         <v>2206.6550000000002</v>
       </c>
-      <c r="D19" s="8">
-        <f>AJ19-C19</f>
+      <c r="D46" s="8">
+        <f>AP46-C46</f>
         <v>2415.7319999999995</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E46" s="8">
         <v>2317.3919999999998</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AI19" s="7">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AE46" s="7">
+        <f>SUM(AE3:AE45)</f>
+        <v>13310</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>8053</v>
+      </c>
+      <c r="AI46" s="7">
+        <v>8483</v>
+      </c>
+      <c r="AO46" s="7">
         <v>3556.6619999999998</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AP46" s="7">
         <v>4622.3869999999997</v>
       </c>
-      <c r="AS19" s="7">
+      <c r="AY46" s="7">
         <v>7915.3</v>
       </c>
-      <c r="AT19" s="7">
+      <c r="AZ46" s="7">
         <v>8538.6</v>
       </c>
-      <c r="AU19" s="7">
+      <c r="BA46" s="7">
         <v>9150.7999999999993</v>
       </c>
-      <c r="AV19" s="7">
+      <c r="BB46" s="7">
         <v>10310</v>
       </c>
-      <c r="AW19" s="7">
+      <c r="BC46" s="7">
         <v>10561.9</v>
       </c>
-      <c r="AX19" s="7">
-        <f>SUM(AX5:AX17)</f>
+      <c r="BD46" s="7">
+        <f>SUM(BD10:BD44)</f>
         <v>0</v>
       </c>
-      <c r="AY19" s="7">
-        <f t="shared" ref="AY19:BJ19" si="10">SUM(AY5:AY17)</f>
+      <c r="BE46" s="7">
+        <f>SUM(AG3:AG45)</f>
+        <v>12622</v>
+      </c>
+      <c r="BF46" s="7">
+        <f t="shared" ref="BE46:BP46" si="10">SUM(BF10:BF44)</f>
         <v>0</v>
       </c>
-      <c r="AZ19" s="7">
+      <c r="BG46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BA19" s="7">
+      <c r="BH46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BB19" s="7">
+      <c r="BI46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BC19" s="7">
+      <c r="BJ46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BD19" s="7">
+      <c r="BK46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BE19" s="7">
+      <c r="BL46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BF19" s="7">
+      <c r="BM46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BG19" s="7">
+      <c r="BN46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BH19" s="7">
+      <c r="BO46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BI19" s="7">
+      <c r="BP46" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BJ19" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="47" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C47" s="6">
         <v>1192.431</v>
       </c>
-      <c r="D20" s="12">
-        <f>AJ20-C20</f>
+      <c r="D47" s="12">
+        <f>AP47-C47</f>
         <v>1207.2889999999998</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E47" s="6">
         <v>1097.529</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AJ20" s="4">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AE47" s="4">
+        <v>6485</v>
+      </c>
+      <c r="AP47" s="4">
         <v>2399.7199999999998</v>
       </c>
-      <c r="AS20" s="4">
+      <c r="AY47" s="4">
         <v>3531.6</v>
       </c>
-      <c r="AT20" s="4">
+      <c r="AZ47" s="4">
         <v>3761.2</v>
       </c>
-      <c r="AU20" s="4">
+      <c r="BA47" s="4">
         <v>3924.4</v>
       </c>
-      <c r="AV20" s="4">
+      <c r="BB47" s="4">
         <v>4466.7</v>
       </c>
-      <c r="AW20" s="4">
+      <c r="BC47" s="4">
         <v>4829.6000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="BE47" s="4">
+        <v>7129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6">
-        <f>+C19-C20</f>
+      <c r="C48" s="6">
+        <f>+C46-C47</f>
         <v>1014.2240000000002</v>
       </c>
-      <c r="D21" s="6">
-        <f>+D19-D20</f>
+      <c r="D48" s="6">
+        <f>+D46-D47</f>
         <v>1208.4429999999998</v>
       </c>
-      <c r="E21" s="6">
-        <f>+E19-E20</f>
+      <c r="E48" s="6">
+        <f>+E46-E47</f>
         <v>1219.8629999999998</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AJ21" s="4">
-        <f>+AJ19-AJ20</f>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AE48" s="4">
+        <f>+AE46-AE47</f>
+        <v>6825</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>4704</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>4494</v>
+      </c>
+      <c r="AP48" s="4">
+        <f>+AP46-AP47</f>
         <v>2222.6669999999999</v>
       </c>
-      <c r="AS21" s="4">
-        <f t="shared" ref="AS21" si="11">+AS19-AS20</f>
+      <c r="AY48" s="4">
+        <f t="shared" ref="AY48" si="11">+AY46-AY47</f>
         <v>4383.7000000000007</v>
       </c>
-      <c r="AT21" s="4">
-        <f>+AT19-AT20</f>
+      <c r="AZ48" s="4">
+        <f>+AZ46-AZ47</f>
         <v>4777.4000000000005</v>
       </c>
-      <c r="AU21" s="4">
-        <f>AU19-AU20</f>
+      <c r="BA48" s="4">
+        <f>BA46-BA47</f>
         <v>5226.3999999999996</v>
       </c>
-      <c r="AV21" s="4">
-        <f>AV19-AV20</f>
+      <c r="BB48" s="4">
+        <f>BB46-BB47</f>
         <v>5843.3</v>
       </c>
-      <c r="AW21" s="4">
-        <f>AW19-AW20</f>
+      <c r="BC48" s="4">
+        <f>BC46-BC47</f>
         <v>5732.2999999999993</v>
       </c>
-    </row>
-    <row r="22" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="BE48" s="4">
+        <f>+BE46-BE47</f>
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="49" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C49" s="6">
         <v>153.03399999999999</v>
       </c>
-      <c r="D22" s="12">
-        <f>AJ22-C22</f>
+      <c r="D49" s="12">
+        <f>AP49-C49</f>
         <v>158.58100000000002</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E49" s="6">
         <v>146.92400000000001</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AJ22" s="4">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AE49" s="4">
+        <v>1269</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>669</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>646</v>
+      </c>
+      <c r="AP49" s="4">
         <v>311.61500000000001</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="AY49" s="4">
         <v>702.4</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="AZ49" s="4">
         <v>831.8</v>
       </c>
-      <c r="AU22" s="4">
+      <c r="BA49" s="4">
         <v>921.8</v>
       </c>
-      <c r="AV22" s="4">
+      <c r="BB49" s="4">
         <v>1001.4</v>
       </c>
-      <c r="AW22" s="4">
+      <c r="BC49" s="4">
         <v>1156.2</v>
       </c>
-    </row>
-    <row r="23" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="BE49" s="4">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="50" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C50" s="6">
         <v>227.47800000000001</v>
       </c>
-      <c r="D23" s="12">
-        <f>AJ23-C23</f>
+      <c r="D50" s="12">
+        <f>AP50-C50</f>
         <v>261.67199999999997</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E50" s="6">
         <v>226.17099999999999</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AJ23" s="4">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AE50" s="4">
+        <v>1481</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>707</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>754</v>
+      </c>
+      <c r="AP50" s="4">
         <v>489.15</v>
       </c>
-      <c r="AS23" s="4">
+      <c r="AY50" s="4">
         <v>786.2</v>
       </c>
-      <c r="AT23" s="4">
+      <c r="AZ50" s="4">
         <v>866.8</v>
       </c>
-      <c r="AU23" s="4">
+      <c r="BA50" s="4">
         <v>896.2</v>
       </c>
-      <c r="AV23" s="4">
+      <c r="BB50" s="4">
         <v>980.2</v>
       </c>
-      <c r="AW23" s="4">
+      <c r="BC50" s="4">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="24" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="BE50" s="4">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="51" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C51" s="6">
         <v>121.86199999999999</v>
       </c>
-      <c r="D24" s="12">
-        <f>AJ24-C24</f>
+      <c r="D51" s="12">
+        <f>AP51-C51</f>
         <v>285.40200000000004</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E51" s="6">
         <v>123.15900000000001</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AJ24" s="4">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AE51" s="4">
+        <v>1006</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>323</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>426</v>
+      </c>
+      <c r="AP51" s="4">
         <v>407.26400000000001</v>
       </c>
-      <c r="AS24" s="4">
+      <c r="AY51" s="4">
         <v>514.79999999999995</v>
       </c>
-      <c r="AT24" s="4">
+      <c r="AZ51" s="4">
         <v>574.79999999999995</v>
       </c>
-      <c r="AU24" s="4">
+      <c r="BA51" s="4">
         <v>691.9</v>
       </c>
-      <c r="AV24" s="4">
+      <c r="BB51" s="4">
         <v>731.7</v>
       </c>
-      <c r="AW24" s="4">
+      <c r="BC51" s="4">
         <v>688</v>
       </c>
-    </row>
-    <row r="25" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="BE51" s="4">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="52" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C52" s="6">
         <f>158.216-30.22</f>
         <v>127.99600000000001</v>
       </c>
-      <c r="D25" s="12">
-        <f>AJ25-C25</f>
+      <c r="D52" s="12">
+        <f>AP52-C52</f>
         <v>-20.552999999999997</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E52" s="6">
         <f>97.581-9.846</f>
         <v>87.734999999999999</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AJ25" s="4">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AP52" s="4">
         <f>169.352-61.909</f>
         <v>107.44300000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+    <row r="53" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6">
-        <f>C22+C23+C24-C25</f>
+      <c r="C53" s="6">
+        <f>C49+C50+C51-C52</f>
         <v>374.37800000000004</v>
       </c>
-      <c r="D26" s="6">
-        <f>D22+D23+D24-D25</f>
+      <c r="D53" s="6">
+        <f>D49+D50+D51-D52</f>
         <v>726.20799999999997</v>
       </c>
-      <c r="E26" s="6">
-        <f>E22+E23+E24-E25</f>
+      <c r="E53" s="6">
+        <f>E49+E50+E51-E52</f>
         <v>408.51900000000001</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AJ26" s="6">
-        <f>AJ22+AJ23+AJ24-AJ25</f>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AE53" s="4">
+        <f>+AE51+AE50+AE49</f>
+        <v>3756</v>
+      </c>
+      <c r="AG53" s="4">
+        <f>+AG51+AG50+AG49</f>
+        <v>1699</v>
+      </c>
+      <c r="AI53" s="4">
+        <f>+AI51+AI50+AI49</f>
+        <v>1826</v>
+      </c>
+      <c r="AP53" s="6">
+        <f>AP49+AP50+AP51-AP52</f>
         <v>1100.586</v>
       </c>
-      <c r="AS26" s="4">
-        <f t="shared" ref="AS26" si="12">SUM(AS22:AS24)</f>
+      <c r="AY53" s="4">
+        <f t="shared" ref="AY53" si="12">SUM(AY49:AY51)</f>
         <v>2003.3999999999999</v>
       </c>
-      <c r="AT26" s="4">
-        <f>SUM(AT22:AT24)</f>
+      <c r="AZ53" s="4">
+        <f>SUM(AZ49:AZ51)</f>
         <v>2273.3999999999996</v>
       </c>
-      <c r="AU26" s="4">
-        <f>SUM(AU22:AU24)</f>
+      <c r="BA53" s="4">
+        <f>SUM(BA49:BA51)</f>
         <v>2509.9</v>
       </c>
-      <c r="AV26" s="4">
-        <f>SUM(AV22:AV24)</f>
+      <c r="BB53" s="4">
+        <f>SUM(BB49:BB51)</f>
         <v>2713.3</v>
       </c>
-      <c r="AW26" s="4">
-        <f>SUM(AW22:AW24)</f>
+      <c r="BC53" s="4">
+        <f>SUM(BC49:BC51)</f>
         <v>2804.9</v>
       </c>
-    </row>
-    <row r="27" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="BE53" s="4">
+        <f>+BE51+BE50+BE49</f>
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="54" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6">
-        <f>C21-C26</f>
+      <c r="C54" s="6">
+        <f>C48-C53</f>
         <v>639.84600000000012</v>
       </c>
-      <c r="D27" s="6">
-        <f>D21-D26</f>
+      <c r="D54" s="6">
+        <f>D48-D53</f>
         <v>482.23499999999979</v>
       </c>
-      <c r="E27" s="6">
-        <f>E21-E26</f>
+      <c r="E54" s="6">
+        <f>E48-E53</f>
         <v>811.34399999999982</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AJ27" s="6">
-        <f>AJ21-AJ26</f>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AE54" s="4">
+        <f>+AE48-AE53</f>
+        <v>3069</v>
+      </c>
+      <c r="AG54" s="4">
+        <f>+AG48-AG53</f>
+        <v>3005</v>
+      </c>
+      <c r="AI54" s="4">
+        <f>+AI48-AI53</f>
+        <v>2668</v>
+      </c>
+      <c r="AP54" s="6">
+        <f>AP48-AP53</f>
         <v>1122.0809999999999</v>
       </c>
-      <c r="AS27" s="4">
-        <f t="shared" ref="AS27" si="13">AS21-AS26</f>
+      <c r="AY54" s="4">
+        <f t="shared" ref="AY54" si="13">AY48-AY53</f>
         <v>2380.3000000000011</v>
       </c>
-      <c r="AT27" s="4">
-        <f>AT21-AT26</f>
+      <c r="AZ54" s="4">
+        <f>AZ48-AZ53</f>
         <v>2504.0000000000009</v>
       </c>
-      <c r="AU27" s="4">
-        <f>AU21-AU26</f>
+      <c r="BA54" s="4">
+        <f>BA48-BA53</f>
         <v>2716.4999999999995</v>
       </c>
-      <c r="AV27" s="4">
-        <f>AV21-AV26</f>
+      <c r="BB54" s="4">
+        <f>BB48-BB53</f>
         <v>3130</v>
       </c>
-      <c r="AW27" s="4">
-        <f>AW21-AW26</f>
+      <c r="BC54" s="4">
+        <f>BC48-BC53</f>
         <v>2927.3999999999992</v>
       </c>
-    </row>
-    <row r="28" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="BE54" s="4">
+        <f>+BE48-BE53</f>
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="55" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AS28" s="4">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AE55" s="4">
+        <f>-444+38</f>
+        <v>-406</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>-234</v>
+      </c>
+      <c r="AI55" s="4">
+        <v>-222</v>
+      </c>
+      <c r="AP55" s="6"/>
+      <c r="AY55" s="4">
         <f>-108.4+9.3</f>
         <v>-99.100000000000009</v>
       </c>
-      <c r="AT28" s="4">
+      <c r="AZ55" s="4">
         <f>-176.7+13.8</f>
         <v>-162.89999999999998</v>
       </c>
-      <c r="AU28" s="4">
+      <c r="BA55" s="4">
         <f>-150.8+7</f>
         <v>-143.80000000000001</v>
       </c>
-      <c r="AV28" s="4">
+      <c r="BB55" s="4">
         <f>-170.8+3.9</f>
         <v>-166.9</v>
       </c>
-      <c r="AW28" s="4">
+      <c r="BC55" s="4">
         <f>-165.2+17.4</f>
         <v>-147.79999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+      <c r="BE55" s="4">
+        <f>-476+39</f>
+        <v>-437</v>
+      </c>
+    </row>
+    <row r="56" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AS29" s="4">
-        <f t="shared" ref="AS29" si="14">AS27+AS28</f>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AE56" s="4">
+        <f>+AE54+AE55</f>
+        <v>2663</v>
+      </c>
+      <c r="AG56" s="4">
+        <f>+AG54+AG55</f>
+        <v>2771</v>
+      </c>
+      <c r="AI56" s="4">
+        <f>+AI54+AI55</f>
+        <v>2446</v>
+      </c>
+      <c r="AP56" s="6"/>
+      <c r="AY56" s="4">
+        <f t="shared" ref="AY56" si="14">AY54+AY55</f>
         <v>2281.2000000000012</v>
       </c>
-      <c r="AT29" s="4">
-        <f>AT27+AT28</f>
+      <c r="AZ56" s="4">
+        <f>AZ54+AZ55</f>
         <v>2341.1000000000008</v>
       </c>
-      <c r="AU29" s="4">
-        <f>AU27+AU28</f>
+      <c r="BA56" s="4">
+        <f>BA54+BA55</f>
         <v>2572.6999999999994</v>
       </c>
-      <c r="AV29" s="4">
-        <f>AV27+AV28</f>
+      <c r="BB56" s="4">
+        <f>BB54+BB55</f>
         <v>2963.1</v>
       </c>
-      <c r="AW29" s="4">
-        <f>AW27+AW28</f>
+      <c r="BC56" s="4">
+        <f>BC54+BC55</f>
         <v>2779.599999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="BE56" s="4">
+        <f>+BE54+BE55</f>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C57" s="6">
         <v>137.989</v>
       </c>
-      <c r="D30" s="12">
-        <f>AJ30-C30</f>
+      <c r="D57" s="12">
+        <f>AP57-C57</f>
         <v>85.825999999999993</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E57" s="6">
         <v>193.95</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AJ30" s="4">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AE57" s="4">
+        <v>419</v>
+      </c>
+      <c r="AP57" s="4">
         <v>223.815</v>
       </c>
-      <c r="AS30" s="4">
+      <c r="AY57" s="4">
         <v>552.29999999999995</v>
       </c>
-      <c r="AT30" s="4">
+      <c r="AZ57" s="4">
         <v>422.4</v>
       </c>
-      <c r="AU30" s="4">
+      <c r="BA57" s="4">
         <v>470.2</v>
       </c>
-      <c r="AV30" s="4">
+      <c r="BB57" s="4">
         <v>588.1</v>
       </c>
-      <c r="AW30" s="4">
+      <c r="BC57" s="4">
         <v>524.9</v>
       </c>
-    </row>
-    <row r="31" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="BE57" s="4">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6">
-        <f>+C27-C30</f>
+      <c r="C58" s="6">
+        <f>+C54-C57</f>
         <v>501.85700000000008</v>
       </c>
-      <c r="D31" s="6">
-        <f>+D27-D30</f>
+      <c r="D58" s="6">
+        <f>+D54-D57</f>
         <v>396.40899999999976</v>
       </c>
-      <c r="E31" s="6">
-        <f>+E27-E30</f>
+      <c r="E58" s="6">
+        <f>+E54-E57</f>
         <v>617.39399999999978</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AJ31" s="6">
-        <f>+AJ27-AJ30</f>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AE58" s="4">
+        <f>+AE56-AE57</f>
+        <v>2244</v>
+      </c>
+      <c r="AP58" s="6">
+        <f>+AP54-AP57</f>
         <v>898.26599999999985</v>
       </c>
-      <c r="AS31" s="4">
-        <f t="shared" ref="AS31" si="15">AS29-AS30</f>
+      <c r="AY58" s="4">
+        <f t="shared" ref="AY58" si="15">AY56-AY57</f>
         <v>1728.9000000000012</v>
       </c>
-      <c r="AT31" s="4">
-        <f>AT29-AT30</f>
+      <c r="AZ58" s="4">
+        <f>AZ56-AZ57</f>
         <v>1918.7000000000007</v>
       </c>
-      <c r="AU31" s="4">
-        <f>AU29-AU30</f>
+      <c r="BA58" s="4">
+        <f>BA56-BA57</f>
         <v>2102.4999999999995</v>
       </c>
-      <c r="AV31" s="4">
-        <f>AV29-AV30</f>
+      <c r="BB58" s="4">
+        <f>BB56-BB57</f>
         <v>2375</v>
       </c>
-      <c r="AW31" s="4">
-        <f>AW29-AW30</f>
+      <c r="BC58" s="4">
+        <f>BC56-BC57</f>
         <v>2254.6999999999989</v>
       </c>
-    </row>
-    <row r="32" spans="2:62" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+      <c r="BE58" s="4">
+        <f>+BE56-BE57</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="59" spans="2:57" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B59" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="10">
-        <f>+C31/C33</f>
+      <c r="C59" s="10">
+        <f>+C58/C60</f>
         <v>0.85046300408995923</v>
       </c>
-      <c r="D32" s="10">
-        <f>+D31/D33</f>
+      <c r="D59" s="10">
+        <f>+D58/D60</f>
         <v>0.66327492681548916</v>
       </c>
-      <c r="E32" s="10">
-        <f>+E31/E33</f>
+      <c r="E59" s="10">
+        <f>+E58/E60</f>
         <v>1.0600336125949255</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AJ32" s="10">
-        <f>+AJ31/AJ33</f>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AP59" s="10">
+        <f>+AP58/AP60</f>
         <v>1.5029863484704999</v>
       </c>
-      <c r="AS32" s="9">
-        <f t="shared" ref="AS32" si="16">AS31/AS33</f>
+      <c r="AY59" s="9">
+        <f t="shared" ref="AY59" si="16">AY58/AY60</f>
         <v>3.8091850306462058</v>
       </c>
-      <c r="AT32" s="9">
-        <f>AT31/AT33</f>
+      <c r="AZ59" s="9">
+        <f>AZ58/AZ60</f>
         <v>4.2259526094930306</v>
       </c>
-      <c r="AU32" s="9">
-        <f>AU31/AU33</f>
+      <c r="BA59" s="9">
+        <f>BA58/BA60</f>
         <v>4.6147429326995315</v>
       </c>
-      <c r="AV32" s="9">
-        <f>AV31/AV33</f>
+      <c r="BB59" s="9">
+        <f>BB58/BB60</f>
         <v>5.2060065794760595</v>
       </c>
-      <c r="AW32" s="9">
-        <f>AW31/AW33</f>
+      <c r="BC59" s="9">
+        <f>BC58/BC60</f>
         <v>4.7960382167520299</v>
       </c>
     </row>
-    <row r="33" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="60" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C60" s="6">
         <v>590.098567</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D60" s="6">
         <v>597.65413100000001</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E60" s="6">
         <v>582.42870100000005</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AJ33" s="4">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AP60" s="4">
         <v>597.65413100000001</v>
       </c>
-      <c r="AS33" s="4">
+      <c r="AY60" s="4">
         <v>453.87661300000002</v>
       </c>
-      <c r="AT33" s="4">
+      <c r="AZ60" s="4">
         <v>454.02780799999999</v>
       </c>
-      <c r="AU33" s="4">
+      <c r="BA60" s="4">
         <v>455.60500999999999</v>
       </c>
-      <c r="AV33" s="4">
+      <c r="BB60" s="4">
         <v>456.20380299999999</v>
       </c>
-      <c r="AW33" s="4">
+      <c r="BC60" s="4">
         <v>470.117188</v>
       </c>
     </row>
-    <row r="35" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+    <row r="62" spans="2:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AS35" s="4">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AE62" s="4">
+        <v>2601</v>
+      </c>
+      <c r="AG62" s="4">
+        <v>2764</v>
+      </c>
+      <c r="AY62" s="4">
         <v>1902.1</v>
       </c>
-      <c r="AT35" s="4">
+      <c r="AZ62" s="4">
         <v>1644.4</v>
       </c>
-      <c r="AU35" s="4">
+      <c r="BA62" s="4">
         <v>2488.3000000000002</v>
       </c>
-      <c r="AV35" s="4">
+      <c r="BB62" s="4">
         <v>3621.9</v>
       </c>
-      <c r="AW35" s="4">
+      <c r="BC62" s="4">
         <v>2628.7</v>
       </c>
     </row>
-    <row r="36" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="63" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AS36" s="4">
+      <c r="AE63" s="4">
+        <v>1228</v>
+      </c>
+      <c r="AG63">
+        <v>849</v>
+      </c>
+      <c r="AY63" s="4">
         <v>778.8</v>
       </c>
-      <c r="AT36" s="4">
+      <c r="AZ63" s="4">
         <v>1117.5999999999999</v>
       </c>
-      <c r="AU36" s="4">
+      <c r="BA63" s="4">
         <v>1206.8</v>
       </c>
-      <c r="AV36" s="4">
+      <c r="BB63" s="4">
         <v>1196.3</v>
       </c>
-      <c r="AW36" s="4">
+      <c r="BC63" s="4">
         <v>1078.8</v>
       </c>
     </row>
-    <row r="37" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="64" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AS37" s="4">
-        <f t="shared" ref="AS37:AT37" si="17">+AS35-AS36</f>
+      <c r="AE64" s="4">
+        <f>+AE62-AE63</f>
+        <v>1373</v>
+      </c>
+      <c r="AG64" s="4">
+        <f>+AG62-AG63</f>
+        <v>1915</v>
+      </c>
+      <c r="AY64" s="4">
+        <f t="shared" ref="AY64:AZ64" si="17">+AY62-AY63</f>
         <v>1123.3</v>
       </c>
-      <c r="AT37" s="4">
+      <c r="AZ64" s="4">
         <f t="shared" si="17"/>
         <v>526.80000000000018</v>
       </c>
-      <c r="AU37" s="4">
-        <f>+AU35-AU36</f>
+      <c r="BA64" s="4">
+        <f>+BA62-BA63</f>
         <v>1281.5000000000002</v>
       </c>
-      <c r="AV37" s="4">
-        <f>+AV35-AV36</f>
+      <c r="BB64" s="4">
+        <f>+BB62-BB63</f>
         <v>2425.6000000000004</v>
       </c>
-      <c r="AW37" s="4">
-        <f>+AW35-AW36</f>
+      <c r="BC64" s="4">
+        <f>+BC62-BC63</f>
         <v>1549.8999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AT39" s="14">
-        <f t="shared" ref="AT39:AV39" si="18">AT19/AS19-1</f>
+      <c r="AZ66" s="14">
+        <f t="shared" ref="AZ66:BB66" si="18">AZ46/AY46-1</f>
         <v>7.874622566421996E-2</v>
       </c>
-      <c r="AU39" s="14">
+      <c r="BA66" s="14">
         <f t="shared" si="18"/>
         <v>7.1697936429859555E-2</v>
       </c>
-      <c r="AV39" s="14">
+      <c r="BB66" s="14">
         <f t="shared" si="18"/>
         <v>0.1266774489662108</v>
       </c>
-      <c r="AW39" s="14">
-        <f>AW19/AV19-1</f>
+      <c r="BC66" s="14">
+        <f>BC46/BB46-1</f>
         <v>2.4432589718719644E-2</v>
       </c>
     </row>
@@ -3700,18 +4999,18 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>100</v>
       </c>
@@ -3719,7 +5018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -3727,7 +5026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -3744,21 +5043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3872,10 +5156,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0DC62-5BCD-429F-A10A-38246373C0FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3890,17 +5197,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0DC62-5BCD-429F-A10A-38246373C0FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD1E9-4570-4C5D-AEC3-37D82CF0539A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>